--- a/test/data/semves.xlsx
+++ b/test/data/semves.xlsx
@@ -67,9 +67,8 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/apinatomy-models/master/models/wbrcm/source/wbrcm.json, https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves</t>
+      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json,</t>
     </r>
     <r>
       <rPr>
@@ -78,8 +77,9 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.json</t>
+      <t xml:space="preserve"> https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json</t>
     </r>
   </si>
   <si>
@@ -808,7 +808,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -816,6 +815,7 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -866,11 +866,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -880,6 +880,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,7 +908,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -953,6 +957,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2131,7 +2138,7 @@
       <c r="A2" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2139,7 +2146,7 @@
       <c r="A3" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2147,7 +2154,7 @@
       <c r="A4" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2155,7 +2162,7 @@
       <c r="A5" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2163,7 +2170,7 @@
       <c r="A6" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2171,7 +2178,7 @@
       <c r="A7" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2179,7 +2186,7 @@
       <c r="A8" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2187,7 +2194,7 @@
       <c r="A9" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2195,7 +2202,7 @@
       <c r="A10" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2203,7 +2210,7 @@
       <c r="A11" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2211,7 +2218,7 @@
       <c r="A12" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2219,7 +2226,7 @@
       <c r="A13" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2227,7 +2234,7 @@
       <c r="A14" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>238</v>
       </c>
     </row>

--- a/test/data/semves.xlsx
+++ b/test/data/semves.xlsx
@@ -60,27 +60,7 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json</t>
-    </r>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,%20https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json</t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -771,7 +751,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -801,13 +781,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -866,11 +839,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -880,10 +853,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,12 +877,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,7 +929,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,%20https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2138,7 +2109,7 @@
       <c r="A2" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2146,7 +2117,7 @@
       <c r="A3" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2154,7 +2125,7 @@
       <c r="A4" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2162,7 +2133,7 @@
       <c r="A5" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2170,7 +2141,7 @@
       <c r="A6" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2178,7 +2149,7 @@
       <c r="A7" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2186,7 +2157,7 @@
       <c r="A8" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2194,7 +2165,7 @@
       <c r="A9" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2202,7 +2173,7 @@
       <c r="A10" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2210,7 +2181,7 @@
       <c r="A11" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2218,7 +2189,7 @@
       <c r="A12" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2226,7 +2197,7 @@
       <c r="A13" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2234,7 +2205,7 @@
       <c r="A14" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>238</v>
       </c>
     </row>

--- a/test/data/semves.xlsx
+++ b/test/data/semves.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,%20https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json</t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -877,7 +877,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -928,9 +928,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,%20https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/test/data/semves.xlsx
+++ b/test/data/semves.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json , https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_semves.json</t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -876,14 +876,14 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="115.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.41"/>
   </cols>
   <sheetData>
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
